--- a/data/trans_bre/P1424_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>8.399098875578028</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.079683180978472</v>
+        <v>5.079683180978475</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.737574340103341</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.5187430396047892</v>
+        <v>0.5187430396047895</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.337747392505773</v>
+        <v>6.392804420171985</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.578780672892879</v>
+        <v>1.142043680617909</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.610376027597047</v>
+        <v>1.61377900813515</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1096267800612907</v>
+        <v>0.08308444422317089</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.4583580379494</v>
+        <v>10.74863598646455</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.903240803035764</v>
+        <v>8.478547202532827</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4.534968771414372</v>
+        <v>4.592529781496665</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.14235161026646</v>
+        <v>1.076827648914195</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>2.269322736843986</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.771716050356469</v>
+        <v>5.77171605035647</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.297900321565009</v>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8219370728905985</v>
+        <v>0.7239956600976738</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.919518083975756</v>
+        <v>3.910178168759337</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3103803676944594</v>
+        <v>0.2715819187725677</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9070273911063851</v>
+        <v>0.8991950077360559</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.702757083996794</v>
+        <v>3.786353834209017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.657907939755184</v>
+        <v>7.667232241395647</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.33833092836749</v>
+        <v>3.156015602443436</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.142335365054029</v>
+        <v>3.272646740988376</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>2.565831102376485</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.300320242725468</v>
+        <v>4.300320242725467</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.360099450205982</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1.281231892260662</v>
+        <v>1.281231892260661</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9895336992933694</v>
+        <v>1.073740962778617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.48087343771115</v>
+        <v>2.486902816959191</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.4716766038065833</v>
+        <v>0.4502298923588528</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.5533913357000353</v>
+        <v>0.6024520413197487</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.243856268907312</v>
+        <v>4.45878138664149</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.091577457372989</v>
+        <v>6.119824758750341</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>7.56018455672154</v>
+        <v>7.761031448947285</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.461648325639748</v>
+        <v>2.406982534502631</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.682727325717929</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.996779488874104</v>
+        <v>3.996779488874103</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>3.234699389541727</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.245939543614163</v>
+        <v>1.245939543614162</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9507050051559418</v>
+        <v>0.965842258924408</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.078830315752331</v>
+        <v>2.036478778479347</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.06347452829656507</v>
+        <v>0.1077785435382955</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4348971497972331</v>
+        <v>0.4356967944058738</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.650898330232359</v>
+        <v>4.677980144779628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.016598177515413</v>
+        <v>5.928219987391023</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20.44424959254829</v>
+        <v>19.73065749176961</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.577139234272842</v>
+        <v>2.706187420725541</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>4.637860002168859</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.972848947612319</v>
+        <v>4.97284894761232</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.453328291578527</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.732822061292564</v>
+        <v>3.731750863104947</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.880815220575792</v>
+        <v>3.857157953187027</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.636687597900213</v>
+        <v>1.648083204418022</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.8007751284752858</v>
+        <v>0.8046027333935875</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.622468411935184</v>
+        <v>5.800822230928001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.021748518103671</v>
+        <v>5.9958033834954</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.659436582353737</v>
+        <v>3.636995021736158</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.631833696686632</v>
+        <v>1.647596602184748</v>
       </c>
     </row>
     <row r="19">
